--- a/Assignmnet 0n Sumif and countif.xlsx
+++ b/Assignmnet 0n Sumif and countif.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7620" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sumif" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Countif!$A$1:$I$44</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -311,12 +310,14 @@
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Normal 4" xfId="4"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -325,16 +326,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFFFFF00"/>
           <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -650,7 +641,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
@@ -1713,7 +1704,7 @@
   <dimension ref="A1:S44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1825,8 +1816,8 @@
         <v>179.64000000000001</v>
       </c>
       <c r="J4" s="12">
-        <f>SUMIFS(G:G, Sumif!B:B, "central",Sumif!D:D, "Pencil")</f>
-        <v>4597.7099999999991</v>
+        <f>SUMIFS(G:G,  B:B, "central", D:D, "Pencil")</f>
+        <v>1540.32</v>
       </c>
       <c r="L4" s="13"/>
       <c r="M4" s="13"/>
@@ -2808,7 +2799,7 @@
   <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2865,11 +2856,11 @@
         <v>149.25</v>
       </c>
       <c r="H2">
-        <f>COUNTIF($C$2:$C$44,C2)</f>
+        <f t="shared" ref="H2:H44" si="0">COUNTIF($C$2:$C$44,C2)</f>
         <v>4</v>
       </c>
       <c r="I2" t="b">
-        <f>COUNTIF(C1:C44,C2)&gt;3</f>
+        <f t="shared" ref="I2:I44" si="1">COUNTIF(C1:C44,C2)&gt;3</f>
         <v>1</v>
       </c>
       <c r="K2" s="14" t="s">
@@ -2904,11 +2895,11 @@
         <v>131.34</v>
       </c>
       <c r="H3">
-        <f>COUNTIF($C$2:$C$44,C3)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="I3" t="b">
-        <f>COUNTIF(C2:C45,C3)&gt;3</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2935,11 +2926,11 @@
         <v>18.060000000000002</v>
       </c>
       <c r="H4">
-        <f>COUNTIF($C$2:$C$44,C4)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="I4" t="b">
-        <f>COUNTIF(C3:C46,C4)&gt;3</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K4" s="12">
@@ -2970,11 +2961,11 @@
         <v>139.72</v>
       </c>
       <c r="H5">
-        <f>COUNTIF($C$2:$C$44,C5)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="I5" t="b">
-        <f>COUNTIF(C4:C47,C5)&gt;3</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3001,11 +2992,11 @@
         <v>539.7299999999999</v>
       </c>
       <c r="H6">
-        <f>COUNTIF($C$2:$C$44,C6)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="I6" t="b">
-        <f>COUNTIF(C5:C48,C6)&gt;3</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K6" s="14" t="s">
@@ -3041,11 +3032,11 @@
         <v>413.54</v>
       </c>
       <c r="H7">
-        <f>COUNTIF($C$2:$C$44,C7)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="I7" t="b">
-        <f>COUNTIF(C6:C49,C7)&gt;3</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3072,11 +3063,11 @@
         <v>68.37</v>
       </c>
       <c r="H8">
-        <f>COUNTIF($C$2:$C$44,C8)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="I8" t="b">
-        <f>COUNTIF(C7:C50,C8)&gt;3</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K8" s="12"/>
@@ -3104,11 +3095,11 @@
         <v>719.2</v>
       </c>
       <c r="H9">
-        <f>COUNTIF($C$2:$C$44,C9)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="I9" t="b">
-        <f>COUNTIF(C8:C51,C9)&gt;3</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3135,11 +3126,11 @@
         <v>9.0300000000000011</v>
       </c>
       <c r="H10">
-        <f>COUNTIF($C$2:$C$44,C10)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="I10" t="b">
-        <f>COUNTIF(C9:C52,C10)&gt;3</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3166,11 +3157,11 @@
         <v>57.71</v>
       </c>
       <c r="H11">
-        <f>COUNTIF($C$2:$C$44,C11)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I11" t="b">
-        <f>COUNTIF(C10:C53,C11)&gt;3</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3197,11 +3188,11 @@
         <v>479.04</v>
       </c>
       <c r="H12">
-        <f>COUNTIF($C$2:$C$44,C12)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I12" t="b">
-        <f>COUNTIF(C11:C54,C12)&gt;3</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3228,11 +3219,11 @@
         <v>179.64000000000001</v>
       </c>
       <c r="H13">
-        <f>COUNTIF($C$2:$C$44,C13)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="I13" t="b">
-        <f>COUNTIF(C12:C55,C13)&gt;3</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3259,11 +3250,11 @@
         <v>449.1</v>
       </c>
       <c r="H14">
-        <f>COUNTIF($C$2:$C$44,C14)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="I14" t="b">
-        <f>COUNTIF(C13:C56,C14)&gt;3</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3290,11 +3281,11 @@
         <v>249.5</v>
       </c>
       <c r="H15">
-        <f>COUNTIF($C$2:$C$44,C15)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="I15" t="b">
-        <f>COUNTIF(C14:C57,C15)&gt;3</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3321,11 +3312,11 @@
         <v>54.89</v>
       </c>
       <c r="H16">
-        <f>COUNTIF($C$2:$C$44,C16)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="I16" t="b">
-        <f>COUNTIF(C15:C58,C16)&gt;3</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3352,11 +3343,11 @@
         <v>1879.06</v>
       </c>
       <c r="H17">
-        <f>COUNTIF($C$2:$C$44,C17)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="I17" t="b">
-        <f>COUNTIF(C16:C59,C17)&gt;3</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3383,11 +3374,11 @@
         <v>189.05</v>
       </c>
       <c r="H18">
-        <f>COUNTIF($C$2:$C$44,C18)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="I18" t="b">
-        <f>COUNTIF(C17:C60,C18)&gt;3</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3414,11 +3405,11 @@
         <v>299.40000000000003</v>
       </c>
       <c r="H19">
-        <f>COUNTIF($C$2:$C$44,C19)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="I19" t="b">
-        <f>COUNTIF(C18:C61,C19)&gt;3</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3445,11 +3436,11 @@
         <v>539.4</v>
       </c>
       <c r="H20">
-        <f>COUNTIF($C$2:$C$44,C20)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="I20" t="b">
-        <f>COUNTIF(C19:C62,C20)&gt;3</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3476,11 +3467,11 @@
         <v>174.65</v>
       </c>
       <c r="H21">
-        <f>COUNTIF($C$2:$C$44,C21)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="I21" t="b">
-        <f>COUNTIF(C20:C63,C21)&gt;3</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3507,11 +3498,11 @@
         <v>255.84</v>
       </c>
       <c r="H22">
-        <f>COUNTIF($C$2:$C$44,C22)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="I22" t="b">
-        <f>COUNTIF(C21:C64,C22)&gt;3</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3538,11 +3529,11 @@
         <v>575.36</v>
       </c>
       <c r="H23">
-        <f>COUNTIF($C$2:$C$44,C23)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="I23" t="b">
-        <f>COUNTIF(C22:C65,C23)&gt;3</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3569,11 +3560,11 @@
         <v>19.96</v>
       </c>
       <c r="H24">
-        <f>COUNTIF($C$2:$C$44,C24)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="I24" t="b">
-        <f>COUNTIF(C23:C66,C24)&gt;3</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3600,11 +3591,11 @@
         <v>309.38</v>
       </c>
       <c r="H25">
-        <f>COUNTIF($C$2:$C$44,C25)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="I25" t="b">
-        <f>COUNTIF(C24:C67,C25)&gt;3</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3631,11 +3622,11 @@
         <v>999.49999999999989</v>
       </c>
       <c r="H26">
-        <f>COUNTIF($C$2:$C$44,C26)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="I26" t="b">
-        <f>COUNTIF(C25:C68,C26)&gt;3</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3662,11 +3653,11 @@
         <v>479.04</v>
       </c>
       <c r="H27">
-        <f>COUNTIF($C$2:$C$44,C27)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="I27" t="b">
-        <f>COUNTIF(C26:C69,C27)&gt;3</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3693,11 +3684,11 @@
         <v>625</v>
       </c>
       <c r="H28">
-        <f>COUNTIF($C$2:$C$44,C28)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="I28" t="b">
-        <f>COUNTIF(C27:C70,C28)&gt;3</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3724,11 +3715,11 @@
         <v>1005.9</v>
       </c>
       <c r="H29">
-        <f>COUNTIF($C$2:$C$44,C29)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="I29" t="b">
-        <f>COUNTIF(C28:C71,C29)&gt;3</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3755,11 +3746,11 @@
         <v>449.1</v>
       </c>
       <c r="H30">
-        <f>COUNTIF($C$2:$C$44,C30)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="I30" t="b">
-        <f>COUNTIF(C29:C72,C30)&gt;3</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3786,11 +3777,11 @@
         <v>251.72</v>
       </c>
       <c r="H31">
-        <f>COUNTIF($C$2:$C$44,C31)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="I31" t="b">
-        <f>COUNTIF(C30:C73,C31)&gt;3</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3817,11 +3808,11 @@
         <v>686.95</v>
       </c>
       <c r="H32">
-        <f>COUNTIF($C$2:$C$44,C32)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="I32" t="b">
-        <f>COUNTIF(C31:C74,C32)&gt;3</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3848,11 +3839,11 @@
         <v>1619.1899999999998</v>
       </c>
       <c r="H33">
-        <f>COUNTIF($C$2:$C$44,C33)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="I33" t="b">
-        <f>COUNTIF(C32:C75,C33)&gt;3</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3879,11 +3870,11 @@
         <v>299.84999999999997</v>
       </c>
       <c r="H34">
-        <f>COUNTIF($C$2:$C$44,C34)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="I34" t="b">
-        <f>COUNTIF(C33:C76,C34)&gt;3</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3910,11 +3901,11 @@
         <v>1183.26</v>
       </c>
       <c r="H35">
-        <f>COUNTIF($C$2:$C$44,C35)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="I35" t="b">
-        <f>COUNTIF(C34:C77,C35)&gt;3</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3941,11 +3932,11 @@
         <v>250</v>
       </c>
       <c r="H36">
-        <f>COUNTIF($C$2:$C$44,C36)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="I36" t="b">
-        <f>COUNTIF(C35:C78,C36)&gt;3</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3972,11 +3963,11 @@
         <v>86.43</v>
       </c>
       <c r="H37">
-        <f>COUNTIF($C$2:$C$44,C37)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="I37" t="b">
-        <f>COUNTIF(C36:C79,C37)&gt;3</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4003,11 +3994,11 @@
         <v>1305</v>
       </c>
       <c r="H38">
-        <f>COUNTIF($C$2:$C$44,C38)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="I38" t="b">
-        <f>COUNTIF(C37:C80,C38)&gt;3</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4034,11 +4025,11 @@
         <v>167.44</v>
       </c>
       <c r="H39">
-        <f>COUNTIF($C$2:$C$44,C39)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="I39" t="b">
-        <f>COUNTIF(C38:C81,C39)&gt;3</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -4065,11 +4056,11 @@
         <v>139.92999999999998</v>
       </c>
       <c r="H40">
-        <f>COUNTIF($C$2:$C$44,C40)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="I40" t="b">
-        <f>COUNTIF(C39:C82,C40)&gt;3</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -4096,11 +4087,11 @@
         <v>825</v>
       </c>
       <c r="H41">
-        <f>COUNTIF($C$2:$C$44,C41)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="I41" t="b">
-        <f>COUNTIF(C40:C83,C41)&gt;3</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4127,11 +4118,11 @@
         <v>151.24</v>
       </c>
       <c r="H42">
-        <f>COUNTIF($C$2:$C$44,C42)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="I42" t="b">
-        <f>COUNTIF(C41:C84,C42)&gt;3</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4158,11 +4149,11 @@
         <v>63.68</v>
       </c>
       <c r="H43">
-        <f>COUNTIF($C$2:$C$44,C43)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I43" t="b">
-        <f>COUNTIF(C42:C85,C43)&gt;3</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4189,11 +4180,11 @@
         <v>1139.4299999999998</v>
       </c>
       <c r="H44">
-        <f>COUNTIF($C$2:$C$44,C44)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I44" t="b">
-        <f>COUNTIF(C43:C86,C44)&gt;3</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4206,7 +4197,7 @@
     <mergeCell ref="K6:Q6"/>
   </mergeCells>
   <conditionalFormatting sqref="I2:I44">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="True">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="True">
       <formula>NOT(ISERROR(SEARCH("True",I2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4218,7 +4209,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
